--- a/top3000.xlsx
+++ b/top3000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C864E4D-041E-43D2-BFB6-D923E008BE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB1D06-0B3B-48EA-B56F-3440E57F3901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -9155,13 +9155,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9480,8 +9480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9508,7 +9508,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>44997</v>
       </c>
     </row>
@@ -9519,7 +9519,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9528,7 +9528,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9537,7 +9537,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9546,7 +9546,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9555,7 +9555,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9564,7 +9564,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9573,7 +9573,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9582,7 +9582,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9591,7 +9591,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9600,7 +9600,9 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="4">
+        <v>44998</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="1">
@@ -9609,7 +9611,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9618,7 +9620,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9627,7 +9629,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9636,7 +9638,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9645,7 +9647,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9654,7 +9656,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9663,7 +9665,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9672,7 +9674,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9681,7 +9683,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -36504,8 +36506,9 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/top3000.xlsx
+++ b/top3000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB1D06-0B3B-48EA-B56F-3440E57F3901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CAEE78-85A1-4C7F-B8D8-F3CEA9860D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -9150,7 +9150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9163,6 +9163,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9480,8 +9489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9692,7 +9701,9 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="4">
+        <v>44999</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
       <c r="A23" s="1">
@@ -9701,7 +9712,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9710,7 +9721,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9719,7 +9730,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9728,7 +9739,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9737,7 +9748,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9746,7 +9757,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9755,7 +9766,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9764,7 +9775,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9773,7 +9784,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9782,7 +9793,9 @@
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="7">
+        <v>45000</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="1">
@@ -9791,7 +9804,7 @@
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="1">
@@ -9800,7 +9813,7 @@
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="1">
@@ -9809,7 +9822,7 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="1">
@@ -9818,7 +9831,7 @@
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="1">
@@ -9827,7 +9840,7 @@
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="1">
@@ -9836,7 +9849,7 @@
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="1">
@@ -9845,7 +9858,7 @@
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="1">
@@ -9854,7 +9867,7 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="1">
@@ -9863,7 +9876,7 @@
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="1">
@@ -9872,7 +9885,9 @@
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="7">
+        <v>45001</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="15.75">
       <c r="A43" s="1">
@@ -9881,7 +9896,7 @@
       <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="1">
@@ -9890,7 +9905,7 @@
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="1">
@@ -36506,9 +36521,12 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/top3000.xlsx
+++ b/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CAEE78-85A1-4C7F-B8D8-F3CEA9860D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FA0C7-4CDE-4864-8B91-25F660D7A035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9490,7 +9490,7 @@
   <dimension ref="A1:C3001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B44"/>
+      <selection activeCell="B45" sqref="B45:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9914,7 +9914,9 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="4">
+        <v>45002</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="15.75">
       <c r="A46" s="1">
@@ -9923,7 +9925,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -9932,7 +9934,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -36521,7 +36523,8 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C45:C47"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C12:C21"/>
     <mergeCell ref="C22:C31"/>

--- a/top3000.xlsx
+++ b/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FA0C7-4CDE-4864-8B91-25F660D7A035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C36205-C70A-4C84-AFC8-4D40C1D1D41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9490,7 +9490,7 @@
   <dimension ref="A1:C3001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B47"/>
+      <selection activeCell="B48" sqref="B48:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9943,7 +9943,9 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="4">
+        <v>45004</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="1">
@@ -9952,7 +9954,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -9961,7 +9963,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -9970,7 +9972,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -9979,7 +9981,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -9988,7 +9990,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -36523,7 +36525,8 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C48:C53"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C12:C21"/>
